--- a/biology/Botanique/Feuillette/Feuillette.xlsx
+++ b/biology/Botanique/Feuillette/Feuillette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 feuillette, sur le Wiktionnaire
 La feuillette,  est une unité de mesure française de volume pour des liquides prémétrique. Le mot vient du feuillet de la jauge indiquant le bon remplissage du fût.
 La feuillette valait exactement la moitié d'un muid de liquides et aussi le double d'un quartaut. Elle valait également quatre pied-du-roi cube, donc environ 137,109 litres.
-D'une région à l'autre les définitions n'étaient pas les mêmes. À Paris la feuillette valait 134 litres[1]; en Bourgogne la feuillette vaut une demie pièce, soit un fût de 114 litres en Côte-d'Or, et de 108 litres dans le Mâconnais[2]. 
+D'une région à l'autre les définitions n'étaient pas les mêmes. À Paris la feuillette valait 134 litres; en Bourgogne la feuillette vaut une demie pièce, soit un fût de 114 litres en Côte-d'Or, et de 108 litres dans le Mâconnais. 
 </t>
         </is>
       </c>
